--- a/REGULAR/ACCOUNTING/ROCILLO, CECILIA.xlsx
+++ b/REGULAR/ACCOUNTING/ROCILLO, CECILIA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="435">
   <si>
     <t>PERIOD</t>
   </si>
@@ -3745,7 +3745,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K690" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K691" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4123,12 +4123,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K690"/>
+  <dimension ref="A2:K691"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A602" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A620" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="F611" sqref="F611"/>
+      <selection pane="bottomLeft" activeCell="K633" sqref="K633"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4293,7 +4293,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>49.391000000000091</v>
+        <v>51.891000000000091</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4303,7 +4303,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>98.91</v>
+        <v>100.41</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -18313,13 +18313,15 @@
       <c r="B631" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C631" s="13"/>
+      <c r="C631" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D631" s="39"/>
       <c r="E631" s="9"/>
       <c r="F631" s="20"/>
-      <c r="G631" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G631" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H631" s="39">
         <v>4</v>
@@ -18334,25 +18336,33 @@
       <c r="A632" s="40">
         <v>45139</v>
       </c>
-      <c r="B632" s="20"/>
-      <c r="C632" s="13"/>
+      <c r="B632" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C632" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D632" s="39"/>
       <c r="E632" s="9"/>
       <c r="F632" s="20"/>
-      <c r="G632" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H632" s="39"/>
+      <c r="G632" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H632" s="39">
+        <v>1</v>
+      </c>
       <c r="I632" s="9"/>
       <c r="J632" s="11"/>
-      <c r="K632" s="20"/>
+      <c r="K632" s="48">
+        <v>45145</v>
+      </c>
     </row>
     <row r="633" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A633" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B633" s="20"/>
+      <c r="A633" s="40"/>
+      <c r="B633" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C633" s="13"/>
       <c r="D633" s="39"/>
       <c r="E633" s="9"/>
@@ -18364,11 +18374,13 @@
       <c r="H633" s="39"/>
       <c r="I633" s="9"/>
       <c r="J633" s="11"/>
-      <c r="K633" s="20"/>
+      <c r="K633" s="48">
+        <v>45167</v>
+      </c>
     </row>
     <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B634" s="20"/>
       <c r="C634" s="13"/>
@@ -18386,7 +18398,7 @@
     </row>
     <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B635" s="20"/>
       <c r="C635" s="13"/>
@@ -18404,7 +18416,7 @@
     </row>
     <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B636" s="20"/>
       <c r="C636" s="13"/>
@@ -18422,7 +18434,7 @@
     </row>
     <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B637" s="20"/>
       <c r="C637" s="13"/>
@@ -18440,7 +18452,7 @@
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B638" s="20"/>
       <c r="C638" s="13"/>
@@ -18458,7 +18470,7 @@
     </row>
     <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
@@ -18476,7 +18488,7 @@
     </row>
     <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -18494,7 +18506,7 @@
     </row>
     <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
@@ -18512,7 +18524,7 @@
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
@@ -18530,7 +18542,7 @@
     </row>
     <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
@@ -18548,7 +18560,7 @@
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
@@ -18566,7 +18578,7 @@
     </row>
     <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
@@ -18584,7 +18596,7 @@
     </row>
     <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
@@ -18602,7 +18614,7 @@
     </row>
     <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
@@ -18620,7 +18632,7 @@
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -18638,7 +18650,7 @@
     </row>
     <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
@@ -18656,7 +18668,7 @@
     </row>
     <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
@@ -18674,7 +18686,7 @@
     </row>
     <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
@@ -18692,7 +18704,7 @@
     </row>
     <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
@@ -18710,7 +18722,7 @@
     </row>
     <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -18728,7 +18740,7 @@
     </row>
     <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
@@ -18746,7 +18758,7 @@
     </row>
     <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -18764,7 +18776,7 @@
     </row>
     <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -18782,7 +18794,7 @@
     </row>
     <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -18800,7 +18812,7 @@
     </row>
     <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -18818,7 +18830,7 @@
     </row>
     <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -18836,7 +18848,7 @@
     </row>
     <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -18854,7 +18866,7 @@
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -18872,7 +18884,7 @@
     </row>
     <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -18890,7 +18902,7 @@
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -18908,7 +18920,7 @@
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -18926,7 +18938,7 @@
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -18944,7 +18956,7 @@
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -18962,7 +18974,7 @@
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -18980,7 +18992,7 @@
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -18998,7 +19010,7 @@
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -19016,7 +19028,7 @@
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -19034,7 +19046,7 @@
     </row>
     <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -19052,7 +19064,7 @@
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -19070,7 +19082,7 @@
     </row>
     <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -19088,7 +19100,7 @@
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -19106,7 +19118,7 @@
     </row>
     <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -19124,7 +19136,7 @@
     </row>
     <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -19142,7 +19154,7 @@
     </row>
     <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -19160,7 +19172,7 @@
     </row>
     <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -19178,7 +19190,7 @@
     </row>
     <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -19196,7 +19208,7 @@
     </row>
     <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -19214,7 +19226,7 @@
     </row>
     <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -19232,7 +19244,7 @@
     </row>
     <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -19250,7 +19262,7 @@
     </row>
     <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -19268,7 +19280,7 @@
     </row>
     <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -19286,7 +19298,7 @@
     </row>
     <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -19304,7 +19316,7 @@
     </row>
     <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -19322,7 +19334,7 @@
     </row>
     <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -19340,7 +19352,7 @@
     </row>
     <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -19358,7 +19370,7 @@
     </row>
     <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -19376,7 +19388,7 @@
     </row>
     <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -19391,6 +19403,24 @@
       <c r="I690" s="9"/>
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
+    </row>
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A691" s="40">
+        <v>46905</v>
+      </c>
+      <c r="B691" s="20"/>
+      <c r="C691" s="13"/>
+      <c r="D691" s="39"/>
+      <c r="E691" s="9"/>
+      <c r="F691" s="20"/>
+      <c r="G691" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H691" s="39"/>
+      <c r="I691" s="9"/>
+      <c r="J691" s="11"/>
+      <c r="K691" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -19562,7 +19592,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>148.3010000000001</v>
+        <v>152.3010000000001</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/ACCOUNTING/ROCILLO, CECILIA.xlsx
+++ b/REGULAR/ACCOUNTING/ROCILLO, CECILIA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="437">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2216,7 +2216,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2259,7 +2259,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2323,7 +2323,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2383,7 +2383,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2449,7 +2449,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2512,7 +2512,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2610,7 +2610,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2669,7 +2669,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2734,7 +2734,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2777,7 +2777,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2852,7 +2852,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3038,7 +3038,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3104,7 +3104,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3162,7 +3162,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3228,7 +3228,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3284,7 +3284,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3359,7 +3359,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3402,7 +3402,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3468,7 +3468,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3524,7 +3524,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3622,7 +3622,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3685,7 +3685,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4134,7 +4134,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A617" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="F641" sqref="F641"/>
+      <selection pane="bottomLeft" activeCell="E639" sqref="E639"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4299,7 +4299,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>51.641000000000091</v>
+        <v>52.891000000000091</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4309,7 +4309,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>102.16</v>
+        <v>103.41</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -18500,19 +18500,25 @@
       <c r="A639" s="40">
         <v>45261</v>
       </c>
-      <c r="B639" s="20"/>
-      <c r="C639" s="13"/>
+      <c r="B639" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C639" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D639" s="39"/>
       <c r="E639" s="9"/>
       <c r="F639" s="20"/>
-      <c r="G639" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G639" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H639" s="39"/>
       <c r="I639" s="9"/>
       <c r="J639" s="11"/>
-      <c r="K639" s="20"/>
+      <c r="K639" s="48">
+        <v>45281</v>
+      </c>
     </row>
     <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40">
@@ -19656,7 +19662,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>153.8010000000001</v>
+        <v>156.3010000000001</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/ACCOUNTING/ROCILLO, CECILIA.xlsx
+++ b/REGULAR/ACCOUNTING/ROCILLO, CECILIA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="438">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1345,6 +1345,9 @@
   </si>
   <si>
     <t>10/9,10/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -2216,7 +2219,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2259,7 +2262,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2323,7 +2326,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2383,7 +2386,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2449,7 +2452,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2512,7 +2515,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2610,7 +2613,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2669,7 +2672,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2734,7 +2737,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2777,7 +2780,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2852,7 +2855,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3038,7 +3041,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3104,7 +3107,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3162,7 +3165,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3228,7 +3231,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3284,7 +3287,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3359,7 +3362,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3402,7 +3405,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3468,7 +3471,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3524,7 +3527,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3622,7 +3625,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3685,7 +3688,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3751,7 +3754,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K693" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K695" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4129,12 +4132,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K693"/>
+  <dimension ref="A2:K695"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A617" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A620" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="E639" sqref="E639"/>
+      <selection pane="bottomLeft" activeCell="F642" sqref="F642"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4299,7 +4302,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>52.891000000000091</v>
+        <v>52.360000000000085</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -18479,11 +18482,11 @@
     <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40"/>
       <c r="B638" s="20" t="s">
-        <v>260</v>
+        <v>98</v>
       </c>
       <c r="C638" s="13"/>
       <c r="D638" s="39">
-        <v>2</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="E638" s="9"/>
       <c r="F638" s="20"/>
@@ -18497,50 +18500,52 @@
       <c r="K638" s="48"/>
     </row>
     <row r="639" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A639" s="40">
-        <v>45261</v>
-      </c>
+      <c r="A639" s="40"/>
       <c r="B639" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C639" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D639" s="39"/>
+        <v>260</v>
+      </c>
+      <c r="C639" s="13"/>
+      <c r="D639" s="39">
+        <v>2</v>
+      </c>
       <c r="E639" s="9"/>
       <c r="F639" s="20"/>
-      <c r="G639" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G639" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H639" s="39"/>
       <c r="I639" s="9"/>
       <c r="J639" s="11"/>
-      <c r="K639" s="48">
-        <v>45281</v>
-      </c>
+      <c r="K639" s="48"/>
     </row>
     <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B640" s="20"/>
-      <c r="C640" s="13"/>
+        <v>45261</v>
+      </c>
+      <c r="B640" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C640" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D640" s="39"/>
       <c r="E640" s="9"/>
       <c r="F640" s="20"/>
-      <c r="G640" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G640" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H640" s="39"/>
       <c r="I640" s="9"/>
       <c r="J640" s="11"/>
-      <c r="K640" s="20"/>
+      <c r="K640" s="48">
+        <v>45281</v>
+      </c>
     </row>
     <row r="641" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A641" s="40">
-        <v>45323</v>
+      <c r="A641" s="47" t="s">
+        <v>437</v>
       </c>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
@@ -18554,11 +18559,11 @@
       <c r="H641" s="39"/>
       <c r="I641" s="9"/>
       <c r="J641" s="11"/>
-      <c r="K641" s="20"/>
+      <c r="K641" s="48"/>
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
@@ -18576,7 +18581,7 @@
     </row>
     <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
@@ -18594,7 +18599,7 @@
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
@@ -18612,7 +18617,7 @@
     </row>
     <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
@@ -18630,7 +18635,7 @@
     </row>
     <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
@@ -18648,7 +18653,7 @@
     </row>
     <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
@@ -18666,7 +18671,7 @@
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -18684,7 +18689,7 @@
     </row>
     <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
@@ -18702,7 +18707,7 @@
     </row>
     <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
@@ -18720,7 +18725,7 @@
     </row>
     <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
@@ -18738,7 +18743,7 @@
     </row>
     <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
@@ -18756,7 +18761,7 @@
     </row>
     <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -18774,7 +18779,7 @@
     </row>
     <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
@@ -18792,7 +18797,7 @@
     </row>
     <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -18810,7 +18815,7 @@
     </row>
     <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -18828,7 +18833,7 @@
     </row>
     <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -18846,7 +18851,7 @@
     </row>
     <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -18864,7 +18869,7 @@
     </row>
     <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -18882,7 +18887,7 @@
     </row>
     <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -18900,7 +18905,7 @@
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40">
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -18918,7 +18923,7 @@
     </row>
     <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40">
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -18936,7 +18941,7 @@
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40">
-        <v>45992</v>
+        <v>45931</v>
       </c>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -18954,7 +18959,7 @@
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40">
-        <v>46023</v>
+        <v>45962</v>
       </c>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -18972,7 +18977,7 @@
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40">
-        <v>46054</v>
+        <v>45992</v>
       </c>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -18990,7 +18995,7 @@
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40">
-        <v>46082</v>
+        <v>46023</v>
       </c>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -19008,7 +19013,7 @@
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40">
-        <v>46113</v>
+        <v>46054</v>
       </c>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -19026,7 +19031,7 @@
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40">
-        <v>46143</v>
+        <v>46082</v>
       </c>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -19044,7 +19049,7 @@
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40">
-        <v>46174</v>
+        <v>46113</v>
       </c>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -19062,7 +19067,7 @@
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40">
-        <v>46204</v>
+        <v>46143</v>
       </c>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -19080,7 +19085,7 @@
     </row>
     <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40">
-        <v>46235</v>
+        <v>46174</v>
       </c>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -19098,7 +19103,7 @@
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40">
-        <v>46266</v>
+        <v>46204</v>
       </c>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -19116,7 +19121,7 @@
     </row>
     <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40">
-        <v>46296</v>
+        <v>46235</v>
       </c>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -19134,7 +19139,7 @@
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40">
-        <v>46327</v>
+        <v>46266</v>
       </c>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -19152,7 +19157,7 @@
     </row>
     <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40">
-        <v>46357</v>
+        <v>46296</v>
       </c>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -19170,7 +19175,7 @@
     </row>
     <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40">
-        <v>46388</v>
+        <v>46327</v>
       </c>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -19188,7 +19193,7 @@
     </row>
     <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40">
-        <v>46419</v>
+        <v>46357</v>
       </c>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -19206,7 +19211,7 @@
     </row>
     <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40">
-        <v>46447</v>
+        <v>46388</v>
       </c>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -19224,7 +19229,7 @@
     </row>
     <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40">
-        <v>46478</v>
+        <v>46419</v>
       </c>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -19242,7 +19247,7 @@
     </row>
     <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40">
-        <v>46508</v>
+        <v>46447</v>
       </c>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -19260,7 +19265,7 @@
     </row>
     <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40">
-        <v>46539</v>
+        <v>46478</v>
       </c>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -19278,7 +19283,7 @@
     </row>
     <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40">
-        <v>46569</v>
+        <v>46508</v>
       </c>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -19296,7 +19301,7 @@
     </row>
     <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40">
-        <v>46600</v>
+        <v>46539</v>
       </c>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -19314,7 +19319,7 @@
     </row>
     <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40">
-        <v>46631</v>
+        <v>46569</v>
       </c>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -19332,7 +19337,7 @@
     </row>
     <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40">
-        <v>46661</v>
+        <v>46600</v>
       </c>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -19350,7 +19355,7 @@
     </row>
     <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40">
-        <v>46692</v>
+        <v>46631</v>
       </c>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -19368,7 +19373,7 @@
     </row>
     <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40">
-        <v>46722</v>
+        <v>46661</v>
       </c>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -19386,7 +19391,7 @@
     </row>
     <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40">
-        <v>46753</v>
+        <v>46692</v>
       </c>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -19404,7 +19409,7 @@
     </row>
     <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40">
-        <v>46784</v>
+        <v>46722</v>
       </c>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -19422,7 +19427,7 @@
     </row>
     <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40">
-        <v>46813</v>
+        <v>46753</v>
       </c>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -19440,7 +19445,7 @@
     </row>
     <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40">
-        <v>46844</v>
+        <v>46784</v>
       </c>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -19458,7 +19463,7 @@
     </row>
     <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40">
-        <v>46874</v>
+        <v>46813</v>
       </c>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -19476,7 +19481,7 @@
     </row>
     <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40">
-        <v>46905</v>
+        <v>46844</v>
       </c>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -19491,6 +19496,42 @@
       <c r="I693" s="9"/>
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
+    </row>
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A694" s="40">
+        <v>46874</v>
+      </c>
+      <c r="B694" s="20"/>
+      <c r="C694" s="13"/>
+      <c r="D694" s="39"/>
+      <c r="E694" s="9"/>
+      <c r="F694" s="20"/>
+      <c r="G694" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H694" s="39"/>
+      <c r="I694" s="9"/>
+      <c r="J694" s="11"/>
+      <c r="K694" s="20"/>
+    </row>
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A695" s="40">
+        <v>46905</v>
+      </c>
+      <c r="B695" s="20"/>
+      <c r="C695" s="13"/>
+      <c r="D695" s="39"/>
+      <c r="E695" s="9"/>
+      <c r="F695" s="20"/>
+      <c r="G695" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H695" s="39"/>
+      <c r="I695" s="9"/>
+      <c r="J695" s="11"/>
+      <c r="K695" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -19606,14 +19647,14 @@
       </c>
       <c r="D3"/>
       <c r="E3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G3" s="46">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.29799999999999999</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">
@@ -19662,7 +19703,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>156.3010000000001</v>
+        <v>155.7700000000001</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/ACCOUNTING/ROCILLO, CECILIA.xlsx
+++ b/REGULAR/ACCOUNTING/ROCILLO, CECILIA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="448">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1348,6 +1348,36 @@
   </si>
   <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t>UT(0-4-18)</t>
+  </si>
+  <si>
+    <t>A(1-0-0)</t>
+  </si>
+  <si>
+    <t>UT(0-0-28)</t>
+  </si>
+  <si>
+    <t>UT(0-0-35)</t>
+  </si>
+  <si>
+    <t>UT(1-0-21)</t>
+  </si>
+  <si>
+    <t>5/25,31/2023</t>
+  </si>
+  <si>
+    <t>UT(1-0-5)</t>
+  </si>
+  <si>
+    <t>UT(0-0-57)</t>
+  </si>
+  <si>
+    <t>UT(0-0-5)</t>
+  </si>
+  <si>
+    <t>12/21/2023 (20)</t>
   </si>
 </sst>
 </file>
@@ -3754,7 +3784,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K695" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K706" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4132,12 +4162,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K695"/>
+  <dimension ref="A2:K706"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A620" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A632" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="F642" sqref="F642"/>
+      <selection pane="bottomLeft" activeCell="F656" sqref="F656"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4302,7 +4332,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>52.360000000000085</v>
+        <v>45.788000000000139</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4312,7 +4342,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>103.41</v>
+        <v>102.41</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -18130,32 +18160,28 @@
       </c>
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A623" s="40">
-        <v>44958</v>
-      </c>
+      <c r="A623" s="40"/>
       <c r="B623" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C623" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D623" s="39"/>
+        <v>446</v>
+      </c>
+      <c r="C623" s="13"/>
+      <c r="D623" s="39">
+        <v>0.01</v>
+      </c>
       <c r="E623" s="9"/>
       <c r="F623" s="20"/>
-      <c r="G623" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G623" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H623" s="39"/>
       <c r="I623" s="9"/>
       <c r="J623" s="11"/>
-      <c r="K623" s="48">
-        <v>44985</v>
-      </c>
+      <c r="K623" s="48"/>
     </row>
     <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B624" s="20" t="s">
         <v>47</v>
@@ -18176,35 +18202,35 @@
       <c r="I624" s="9"/>
       <c r="J624" s="11"/>
       <c r="K624" s="48">
-        <v>45016</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="625" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A625" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B625" s="20"/>
-      <c r="C625" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D625" s="39"/>
+      <c r="A625" s="40"/>
+      <c r="B625" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="C625" s="13"/>
+      <c r="D625" s="39">
+        <v>7.7000000000000013E-2</v>
+      </c>
       <c r="E625" s="9"/>
       <c r="F625" s="20"/>
-      <c r="G625" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G625" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H625" s="39"/>
       <c r="I625" s="9"/>
       <c r="J625" s="11"/>
-      <c r="K625" s="20"/>
+      <c r="K625" s="48"/>
     </row>
     <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40">
-        <v>45047</v>
+        <v>44986</v>
       </c>
       <c r="B626" s="20" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="C626" s="13">
         <v>1.25</v>
@@ -18217,22 +18243,22 @@
         <v>1.25</v>
       </c>
       <c r="H626" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I626" s="9"/>
       <c r="J626" s="11"/>
-      <c r="K626" s="20" t="s">
-        <v>428</v>
+      <c r="K626" s="48">
+        <v>45016</v>
       </c>
     </row>
     <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40"/>
       <c r="B627" s="20" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C627" s="13"/>
       <c r="D627" s="39">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E627" s="9"/>
       <c r="F627" s="20"/>
@@ -18243,35 +18269,35 @@
       <c r="H627" s="39"/>
       <c r="I627" s="9"/>
       <c r="J627" s="11"/>
-      <c r="K627" s="48">
-        <v>45061</v>
-      </c>
+      <c r="K627" s="48"/>
     </row>
     <row r="628" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A628" s="40"/>
+      <c r="A628" s="40">
+        <v>45017</v>
+      </c>
       <c r="B628" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C628" s="13"/>
-      <c r="D628" s="39"/>
+        <v>445</v>
+      </c>
+      <c r="C628" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D628" s="39">
+        <v>0.11900000000000001</v>
+      </c>
       <c r="E628" s="9"/>
       <c r="F628" s="20"/>
-      <c r="G628" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H628" s="39">
-        <v>1</v>
-      </c>
+      <c r="G628" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H628" s="39"/>
       <c r="I628" s="9"/>
       <c r="J628" s="11"/>
-      <c r="K628" s="48">
-        <v>45057</v>
-      </c>
+      <c r="K628" s="20"/>
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B629" s="20" t="s">
         <v>73</v>
@@ -18291,223 +18317,221 @@
       </c>
       <c r="I629" s="9"/>
       <c r="J629" s="11"/>
-      <c r="K629" s="20"/>
+      <c r="K629" s="20" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40"/>
       <c r="B630" s="20" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C630" s="13"/>
-      <c r="D630" s="39"/>
+      <c r="D630" s="39">
+        <v>1</v>
+      </c>
       <c r="E630" s="9"/>
       <c r="F630" s="20"/>
       <c r="G630" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H630" s="39">
-        <v>1</v>
-      </c>
+      <c r="H630" s="39"/>
       <c r="I630" s="9"/>
       <c r="J630" s="11"/>
       <c r="K630" s="48">
-        <v>45084</v>
+        <v>45061</v>
       </c>
     </row>
     <row r="631" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A631" s="40">
-        <v>45108</v>
-      </c>
+      <c r="A631" s="40"/>
       <c r="B631" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C631" s="13">
-        <v>1.25</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C631" s="13"/>
       <c r="D631" s="39"/>
       <c r="E631" s="9"/>
       <c r="F631" s="20"/>
-      <c r="G631" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G631" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H631" s="39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I631" s="9"/>
       <c r="J631" s="11"/>
-      <c r="K631" s="20" t="s">
-        <v>429</v>
+      <c r="K631" s="48">
+        <v>45057</v>
       </c>
     </row>
     <row r="632" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A632" s="40">
-        <v>45139</v>
-      </c>
+      <c r="A632" s="40"/>
       <c r="B632" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C632" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D632" s="39"/>
+        <v>444</v>
+      </c>
+      <c r="C632" s="13"/>
+      <c r="D632" s="39">
+        <v>1.01</v>
+      </c>
       <c r="E632" s="9"/>
       <c r="F632" s="20"/>
-      <c r="G632" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H632" s="39">
-        <v>1</v>
-      </c>
+      <c r="G632" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H632" s="39"/>
       <c r="I632" s="9"/>
       <c r="J632" s="11"/>
-      <c r="K632" s="48">
-        <v>45145</v>
-      </c>
+      <c r="K632" s="48"/>
     </row>
     <row r="633" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A633" s="40"/>
+      <c r="A633" s="40">
+        <v>45078</v>
+      </c>
       <c r="B633" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C633" s="13"/>
+        <v>73</v>
+      </c>
+      <c r="C633" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D633" s="39"/>
       <c r="E633" s="9"/>
       <c r="F633" s="20"/>
-      <c r="G633" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H633" s="39"/>
+      <c r="G633" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H633" s="39">
+        <v>2</v>
+      </c>
       <c r="I633" s="9"/>
       <c r="J633" s="11"/>
-      <c r="K633" s="48">
-        <v>45167</v>
+      <c r="K633" s="20" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="634" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A634" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B634" s="20"/>
-      <c r="C634" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A634" s="40"/>
+      <c r="B634" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C634" s="13"/>
       <c r="D634" s="39"/>
       <c r="E634" s="9"/>
       <c r="F634" s="20"/>
-      <c r="G634" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H634" s="39"/>
+      <c r="G634" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H634" s="39">
+        <v>1</v>
+      </c>
       <c r="I634" s="9"/>
       <c r="J634" s="11"/>
-      <c r="K634" s="20"/>
+      <c r="K634" s="48">
+        <v>45084</v>
+      </c>
     </row>
     <row r="635" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A635" s="40">
-        <v>45200</v>
-      </c>
+      <c r="A635" s="40"/>
       <c r="B635" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C635" s="13">
-        <v>1.25</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="C635" s="13"/>
       <c r="D635" s="39">
-        <v>2</v>
+        <v>1.044</v>
       </c>
       <c r="E635" s="9"/>
       <c r="F635" s="20"/>
-      <c r="G635" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G635" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H635" s="39"/>
       <c r="I635" s="9"/>
       <c r="J635" s="11"/>
-      <c r="K635" s="20" t="s">
-        <v>435</v>
-      </c>
+      <c r="K635" s="48"/>
     </row>
     <row r="636" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A636" s="40"/>
+      <c r="A636" s="40">
+        <v>45108</v>
+      </c>
       <c r="B636" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C636" s="13"/>
+        <v>94</v>
+      </c>
+      <c r="C636" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D636" s="39"/>
       <c r="E636" s="9"/>
       <c r="F636" s="20"/>
-      <c r="G636" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G636" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H636" s="39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I636" s="9"/>
       <c r="J636" s="11"/>
       <c r="K636" s="20" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="637" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A637" s="40">
-        <v>45231</v>
-      </c>
+      <c r="A637" s="40"/>
       <c r="B637" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C637" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D637" s="39"/>
+        <v>441</v>
+      </c>
+      <c r="C637" s="13"/>
+      <c r="D637" s="39">
+        <v>7.3000000000000009E-2</v>
+      </c>
       <c r="E637" s="9"/>
       <c r="F637" s="20"/>
-      <c r="G637" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G637" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H637" s="39"/>
       <c r="I637" s="9"/>
       <c r="J637" s="11"/>
-      <c r="K637" s="48">
-        <v>45252</v>
-      </c>
+      <c r="K637" s="20"/>
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A638" s="40"/>
+      <c r="A638" s="40">
+        <v>45139</v>
+      </c>
       <c r="B638" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C638" s="13"/>
-      <c r="D638" s="39">
-        <v>0.53100000000000003</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C638" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D638" s="39"/>
       <c r="E638" s="9"/>
       <c r="F638" s="20"/>
-      <c r="G638" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H638" s="39"/>
+      <c r="G638" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H638" s="39">
+        <v>1</v>
+      </c>
       <c r="I638" s="9"/>
       <c r="J638" s="11"/>
-      <c r="K638" s="48"/>
+      <c r="K638" s="48">
+        <v>45145</v>
+      </c>
     </row>
     <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40"/>
       <c r="B639" s="20" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="C639" s="13"/>
-      <c r="D639" s="39">
-        <v>2</v>
-      </c>
+      <c r="D639" s="39"/>
       <c r="E639" s="9"/>
       <c r="F639" s="20"/>
       <c r="G639" s="13" t="str">
@@ -18517,57 +18541,65 @@
       <c r="H639" s="39"/>
       <c r="I639" s="9"/>
       <c r="J639" s="11"/>
-      <c r="K639" s="48"/>
+      <c r="K639" s="48">
+        <v>45167</v>
+      </c>
     </row>
     <row r="640" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A640" s="40">
-        <v>45261</v>
-      </c>
+      <c r="A640" s="40"/>
       <c r="B640" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C640" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D640" s="39"/>
+        <v>67</v>
+      </c>
+      <c r="C640" s="13"/>
+      <c r="D640" s="39">
+        <v>0.5</v>
+      </c>
       <c r="E640" s="9"/>
       <c r="F640" s="20"/>
-      <c r="G640" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G640" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H640" s="39"/>
       <c r="I640" s="9"/>
       <c r="J640" s="11"/>
-      <c r="K640" s="48">
-        <v>45281</v>
-      </c>
+      <c r="K640" s="48"/>
     </row>
     <row r="641" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A641" s="47" t="s">
-        <v>437</v>
-      </c>
-      <c r="B641" s="20"/>
-      <c r="C641" s="13"/>
-      <c r="D641" s="39"/>
+      <c r="A641" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B641" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="C641" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D641" s="39">
+        <v>1</v>
+      </c>
       <c r="E641" s="9"/>
       <c r="F641" s="20"/>
-      <c r="G641" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G641" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H641" s="39"/>
       <c r="I641" s="9"/>
       <c r="J641" s="11"/>
-      <c r="K641" s="48"/>
+      <c r="K641" s="48">
+        <v>45196</v>
+      </c>
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A642" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B642" s="20"/>
+      <c r="A642" s="40"/>
+      <c r="B642" s="20" t="s">
+        <v>440</v>
+      </c>
       <c r="C642" s="13"/>
-      <c r="D642" s="39"/>
+      <c r="D642" s="39">
+        <v>5.8000000000000017E-2</v>
+      </c>
       <c r="E642" s="9"/>
       <c r="F642" s="20"/>
       <c r="G642" s="13" t="str">
@@ -18581,27 +18613,35 @@
     </row>
     <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B643" s="20"/>
-      <c r="C643" s="13"/>
-      <c r="D643" s="39"/>
+        <v>45200</v>
+      </c>
+      <c r="B643" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C643" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D643" s="39">
+        <v>2</v>
+      </c>
       <c r="E643" s="9"/>
       <c r="F643" s="20"/>
-      <c r="G643" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G643" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H643" s="39"/>
       <c r="I643" s="9"/>
       <c r="J643" s="11"/>
-      <c r="K643" s="20"/>
+      <c r="K643" s="20" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A644" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B644" s="20"/>
+      <c r="A644" s="40"/>
+      <c r="B644" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="C644" s="13"/>
       <c r="D644" s="39"/>
       <c r="E644" s="9"/>
@@ -18610,18 +18650,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H644" s="39"/>
+      <c r="H644" s="39">
+        <v>2</v>
+      </c>
       <c r="I644" s="9"/>
       <c r="J644" s="11"/>
-      <c r="K644" s="20"/>
+      <c r="K644" s="20" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="645" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A645" s="40">
-        <v>45383</v>
-      </c>
-      <c r="B645" s="20"/>
+      <c r="A645" s="40"/>
+      <c r="B645" s="20" t="s">
+        <v>438</v>
+      </c>
       <c r="C645" s="13"/>
-      <c r="D645" s="39"/>
+      <c r="D645" s="39">
+        <v>0.53700000000000003</v>
+      </c>
       <c r="E645" s="9"/>
       <c r="F645" s="20"/>
       <c r="G645" s="13" t="str">
@@ -18635,29 +18681,37 @@
     </row>
     <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40">
-        <v>45413</v>
-      </c>
-      <c r="B646" s="20"/>
-      <c r="C646" s="13"/>
+        <v>45231</v>
+      </c>
+      <c r="B646" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C646" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D646" s="39"/>
       <c r="E646" s="9"/>
       <c r="F646" s="20"/>
-      <c r="G646" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G646" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H646" s="39"/>
       <c r="I646" s="9"/>
       <c r="J646" s="11"/>
-      <c r="K646" s="20"/>
+      <c r="K646" s="48">
+        <v>45252</v>
+      </c>
     </row>
     <row r="647" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A647" s="40">
-        <v>45444</v>
-      </c>
-      <c r="B647" s="20"/>
+      <c r="A647" s="40"/>
+      <c r="B647" s="20" t="s">
+        <v>98</v>
+      </c>
       <c r="C647" s="13"/>
-      <c r="D647" s="39"/>
+      <c r="D647" s="39">
+        <v>0.53100000000000003</v>
+      </c>
       <c r="E647" s="9"/>
       <c r="F647" s="20"/>
       <c r="G647" s="13" t="str">
@@ -18667,15 +18721,17 @@
       <c r="H647" s="39"/>
       <c r="I647" s="9"/>
       <c r="J647" s="11"/>
-      <c r="K647" s="20"/>
+      <c r="K647" s="48"/>
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A648" s="40">
-        <v>45474</v>
-      </c>
-      <c r="B648" s="20"/>
+      <c r="A648" s="40"/>
+      <c r="B648" s="20" t="s">
+        <v>260</v>
+      </c>
       <c r="C648" s="13"/>
-      <c r="D648" s="39"/>
+      <c r="D648" s="39">
+        <v>2</v>
+      </c>
       <c r="E648" s="9"/>
       <c r="F648" s="20"/>
       <c r="G648" s="13" t="str">
@@ -18685,33 +18741,41 @@
       <c r="H648" s="39"/>
       <c r="I648" s="9"/>
       <c r="J648" s="11"/>
-      <c r="K648" s="20"/>
+      <c r="K648" s="48"/>
     </row>
     <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40">
-        <v>45505</v>
-      </c>
-      <c r="B649" s="20"/>
-      <c r="C649" s="13"/>
+        <v>45261</v>
+      </c>
+      <c r="B649" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C649" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D649" s="39"/>
       <c r="E649" s="9"/>
       <c r="F649" s="20"/>
-      <c r="G649" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G649" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H649" s="39"/>
       <c r="I649" s="9"/>
       <c r="J649" s="11"/>
-      <c r="K649" s="20"/>
+      <c r="K649" s="48" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="650" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A650" s="40">
-        <v>45536</v>
-      </c>
-      <c r="B650" s="20"/>
+      <c r="A650" s="40"/>
+      <c r="B650" s="20" t="s">
+        <v>439</v>
+      </c>
       <c r="C650" s="13"/>
-      <c r="D650" s="39"/>
+      <c r="D650" s="39">
+        <v>1</v>
+      </c>
       <c r="E650" s="9"/>
       <c r="F650" s="20"/>
       <c r="G650" s="13" t="str">
@@ -18721,15 +18785,19 @@
       <c r="H650" s="39"/>
       <c r="I650" s="9"/>
       <c r="J650" s="11"/>
-      <c r="K650" s="20"/>
+      <c r="K650" s="48">
+        <v>45271</v>
+      </c>
     </row>
     <row r="651" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A651" s="40">
-        <v>45566</v>
-      </c>
-      <c r="B651" s="20"/>
+      <c r="A651" s="40"/>
+      <c r="B651" s="20" t="s">
+        <v>141</v>
+      </c>
       <c r="C651" s="13"/>
-      <c r="D651" s="39"/>
+      <c r="D651" s="39">
+        <v>0.64400000000000002</v>
+      </c>
       <c r="E651" s="9"/>
       <c r="F651" s="20"/>
       <c r="G651" s="13" t="str">
@@ -18739,11 +18807,11 @@
       <c r="H651" s="39"/>
       <c r="I651" s="9"/>
       <c r="J651" s="11"/>
-      <c r="K651" s="20"/>
+      <c r="K651" s="48"/>
     </row>
     <row r="652" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A652" s="40">
-        <v>45597</v>
+      <c r="A652" s="47" t="s">
+        <v>437</v>
       </c>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
@@ -18757,11 +18825,11 @@
       <c r="H652" s="39"/>
       <c r="I652" s="9"/>
       <c r="J652" s="11"/>
-      <c r="K652" s="20"/>
+      <c r="K652" s="48"/>
     </row>
     <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40">
-        <v>45627</v>
+        <v>45292</v>
       </c>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -18779,7 +18847,7 @@
     </row>
     <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40">
-        <v>45658</v>
+        <v>45323</v>
       </c>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
@@ -18797,7 +18865,7 @@
     </row>
     <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40">
-        <v>45689</v>
+        <v>45352</v>
       </c>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -18815,7 +18883,7 @@
     </row>
     <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40">
-        <v>45717</v>
+        <v>45383</v>
       </c>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -18833,7 +18901,7 @@
     </row>
     <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40">
-        <v>45748</v>
+        <v>45413</v>
       </c>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -18851,7 +18919,7 @@
     </row>
     <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40">
-        <v>45778</v>
+        <v>45444</v>
       </c>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -18869,7 +18937,7 @@
     </row>
     <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40">
-        <v>45809</v>
+        <v>45474</v>
       </c>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -18887,7 +18955,7 @@
     </row>
     <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40">
-        <v>45839</v>
+        <v>45505</v>
       </c>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -18905,7 +18973,7 @@
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40">
-        <v>45870</v>
+        <v>45536</v>
       </c>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -18923,7 +18991,7 @@
     </row>
     <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40">
-        <v>45901</v>
+        <v>45566</v>
       </c>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -18941,7 +19009,7 @@
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40">
-        <v>45931</v>
+        <v>45597</v>
       </c>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -18959,7 +19027,7 @@
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40">
-        <v>45962</v>
+        <v>45627</v>
       </c>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -18977,7 +19045,7 @@
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40">
-        <v>45992</v>
+        <v>45658</v>
       </c>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -18995,7 +19063,7 @@
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40">
-        <v>46023</v>
+        <v>45689</v>
       </c>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -19013,7 +19081,7 @@
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40">
-        <v>46054</v>
+        <v>45717</v>
       </c>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -19031,7 +19099,7 @@
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40">
-        <v>46082</v>
+        <v>45748</v>
       </c>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -19049,7 +19117,7 @@
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40">
-        <v>46113</v>
+        <v>45778</v>
       </c>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -19067,7 +19135,7 @@
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40">
-        <v>46143</v>
+        <v>45809</v>
       </c>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -19085,7 +19153,7 @@
     </row>
     <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40">
-        <v>46174</v>
+        <v>45839</v>
       </c>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -19103,7 +19171,7 @@
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40">
-        <v>46204</v>
+        <v>45870</v>
       </c>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -19121,7 +19189,7 @@
     </row>
     <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40">
-        <v>46235</v>
+        <v>45901</v>
       </c>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -19139,7 +19207,7 @@
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40">
-        <v>46266</v>
+        <v>45931</v>
       </c>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -19157,7 +19225,7 @@
     </row>
     <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40">
-        <v>46296</v>
+        <v>45962</v>
       </c>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -19175,7 +19243,7 @@
     </row>
     <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40">
-        <v>46327</v>
+        <v>45992</v>
       </c>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -19193,7 +19261,7 @@
     </row>
     <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40">
-        <v>46357</v>
+        <v>46023</v>
       </c>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -19211,7 +19279,7 @@
     </row>
     <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40">
-        <v>46388</v>
+        <v>46054</v>
       </c>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -19229,7 +19297,7 @@
     </row>
     <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40">
-        <v>46419</v>
+        <v>46082</v>
       </c>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -19247,7 +19315,7 @@
     </row>
     <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40">
-        <v>46447</v>
+        <v>46113</v>
       </c>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -19265,7 +19333,7 @@
     </row>
     <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40">
-        <v>46478</v>
+        <v>46143</v>
       </c>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -19283,7 +19351,7 @@
     </row>
     <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40">
-        <v>46508</v>
+        <v>46174</v>
       </c>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -19301,7 +19369,7 @@
     </row>
     <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40">
-        <v>46539</v>
+        <v>46204</v>
       </c>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -19319,7 +19387,7 @@
     </row>
     <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40">
-        <v>46569</v>
+        <v>46235</v>
       </c>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -19337,7 +19405,7 @@
     </row>
     <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40">
-        <v>46600</v>
+        <v>46266</v>
       </c>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -19355,7 +19423,7 @@
     </row>
     <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40">
-        <v>46631</v>
+        <v>46296</v>
       </c>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -19373,7 +19441,7 @@
     </row>
     <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40">
-        <v>46661</v>
+        <v>46327</v>
       </c>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -19391,7 +19459,7 @@
     </row>
     <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40">
-        <v>46692</v>
+        <v>46357</v>
       </c>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -19409,7 +19477,7 @@
     </row>
     <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40">
-        <v>46722</v>
+        <v>46388</v>
       </c>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -19427,7 +19495,7 @@
     </row>
     <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40">
-        <v>46753</v>
+        <v>46419</v>
       </c>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -19445,7 +19513,7 @@
     </row>
     <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40">
-        <v>46784</v>
+        <v>46447</v>
       </c>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -19463,7 +19531,7 @@
     </row>
     <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40">
-        <v>46813</v>
+        <v>46478</v>
       </c>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -19481,7 +19549,7 @@
     </row>
     <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40">
-        <v>46844</v>
+        <v>46508</v>
       </c>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -19499,7 +19567,7 @@
     </row>
     <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40">
-        <v>46874</v>
+        <v>46539</v>
       </c>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -19517,7 +19585,7 @@
     </row>
     <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40">
-        <v>46905</v>
+        <v>46569</v>
       </c>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -19532,6 +19600,204 @@
       <c r="I695" s="9"/>
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
+    </row>
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A696" s="40">
+        <v>46600</v>
+      </c>
+      <c r="B696" s="20"/>
+      <c r="C696" s="13"/>
+      <c r="D696" s="39"/>
+      <c r="E696" s="9"/>
+      <c r="F696" s="20"/>
+      <c r="G696" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H696" s="39"/>
+      <c r="I696" s="9"/>
+      <c r="J696" s="11"/>
+      <c r="K696" s="20"/>
+    </row>
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A697" s="40">
+        <v>46631</v>
+      </c>
+      <c r="B697" s="20"/>
+      <c r="C697" s="13"/>
+      <c r="D697" s="39"/>
+      <c r="E697" s="9"/>
+      <c r="F697" s="20"/>
+      <c r="G697" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H697" s="39"/>
+      <c r="I697" s="9"/>
+      <c r="J697" s="11"/>
+      <c r="K697" s="20"/>
+    </row>
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A698" s="40">
+        <v>46661</v>
+      </c>
+      <c r="B698" s="20"/>
+      <c r="C698" s="13"/>
+      <c r="D698" s="39"/>
+      <c r="E698" s="9"/>
+      <c r="F698" s="20"/>
+      <c r="G698" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H698" s="39"/>
+      <c r="I698" s="9"/>
+      <c r="J698" s="11"/>
+      <c r="K698" s="20"/>
+    </row>
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A699" s="40">
+        <v>46692</v>
+      </c>
+      <c r="B699" s="20"/>
+      <c r="C699" s="13"/>
+      <c r="D699" s="39"/>
+      <c r="E699" s="9"/>
+      <c r="F699" s="20"/>
+      <c r="G699" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H699" s="39"/>
+      <c r="I699" s="9"/>
+      <c r="J699" s="11"/>
+      <c r="K699" s="20"/>
+    </row>
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A700" s="40">
+        <v>46722</v>
+      </c>
+      <c r="B700" s="20"/>
+      <c r="C700" s="13"/>
+      <c r="D700" s="39"/>
+      <c r="E700" s="9"/>
+      <c r="F700" s="20"/>
+      <c r="G700" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H700" s="39"/>
+      <c r="I700" s="9"/>
+      <c r="J700" s="11"/>
+      <c r="K700" s="20"/>
+    </row>
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A701" s="40">
+        <v>46753</v>
+      </c>
+      <c r="B701" s="20"/>
+      <c r="C701" s="13"/>
+      <c r="D701" s="39"/>
+      <c r="E701" s="9"/>
+      <c r="F701" s="20"/>
+      <c r="G701" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H701" s="39"/>
+      <c r="I701" s="9"/>
+      <c r="J701" s="11"/>
+      <c r="K701" s="20"/>
+    </row>
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A702" s="40">
+        <v>46784</v>
+      </c>
+      <c r="B702" s="20"/>
+      <c r="C702" s="13"/>
+      <c r="D702" s="39"/>
+      <c r="E702" s="9"/>
+      <c r="F702" s="20"/>
+      <c r="G702" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H702" s="39"/>
+      <c r="I702" s="9"/>
+      <c r="J702" s="11"/>
+      <c r="K702" s="20"/>
+    </row>
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A703" s="40">
+        <v>46813</v>
+      </c>
+      <c r="B703" s="20"/>
+      <c r="C703" s="13"/>
+      <c r="D703" s="39"/>
+      <c r="E703" s="9"/>
+      <c r="F703" s="20"/>
+      <c r="G703" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H703" s="39"/>
+      <c r="I703" s="9"/>
+      <c r="J703" s="11"/>
+      <c r="K703" s="20"/>
+    </row>
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A704" s="40">
+        <v>46844</v>
+      </c>
+      <c r="B704" s="20"/>
+      <c r="C704" s="13"/>
+      <c r="D704" s="39"/>
+      <c r="E704" s="9"/>
+      <c r="F704" s="20"/>
+      <c r="G704" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H704" s="39"/>
+      <c r="I704" s="9"/>
+      <c r="J704" s="11"/>
+      <c r="K704" s="20"/>
+    </row>
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A705" s="40">
+        <v>46874</v>
+      </c>
+      <c r="B705" s="20"/>
+      <c r="C705" s="13"/>
+      <c r="D705" s="39"/>
+      <c r="E705" s="9"/>
+      <c r="F705" s="20"/>
+      <c r="G705" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H705" s="39"/>
+      <c r="I705" s="9"/>
+      <c r="J705" s="11"/>
+      <c r="K705" s="20"/>
+    </row>
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A706" s="40">
+        <v>46905</v>
+      </c>
+      <c r="B706" s="20"/>
+      <c r="C706" s="13"/>
+      <c r="D706" s="39"/>
+      <c r="E706" s="9"/>
+      <c r="F706" s="20"/>
+      <c r="G706" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H706" s="39"/>
+      <c r="I706" s="9"/>
+      <c r="J706" s="11"/>
+      <c r="K706" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -19647,14 +19913,14 @@
       </c>
       <c r="D3"/>
       <c r="E3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G3" s="46">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.53100000000000003</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">
@@ -19703,7 +19969,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>155.7700000000001</v>
+        <v>148.19800000000015</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
